--- a/snr.xlsx
+++ b/snr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>噪声源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,43 +60,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-6.23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-12.23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-0.95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-4.88</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>总SNR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-6.76</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-0.76</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.38</t>
+    <t>-6.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-12.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4.83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4.78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-12.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-8.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4.81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-12.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2.77</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -104,35 +132,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-4.80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-0.73</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-12.14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-6.65</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-6.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-0.83</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.20</t>
+    <t>9.45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-9.37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-9.08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4.60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.46</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,7 +522,7 @@
   <dimension ref="A2:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -507,7 +543,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -527,10 +563,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>27</v>
@@ -544,13 +580,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -561,10 +597,10 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>29</v>
@@ -581,7 +617,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
@@ -598,10 +634,10 @@
         <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -612,13 +648,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -628,6 +664,15 @@
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -636,6 +681,15 @@
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
@@ -643,6 +697,15 @@
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/snr.xlsx
+++ b/snr.xlsx
@@ -56,10 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CF-GSC-Wiener</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>总SNR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,6 +165,10 @@
   </si>
   <si>
     <t>8.46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">滤波器阶数：32 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -212,9 +212,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -519,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -535,6 +538,15 @@
     <col min="6" max="6" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
@@ -543,7 +555,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -551,9 +563,7 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
@@ -563,13 +573,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -580,13 +590,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -597,13 +607,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -614,13 +624,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -631,13 +641,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -648,13 +658,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -665,13 +675,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -682,13 +692,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -699,16 +709,19 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>21</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/snr.xlsx
+++ b/snr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
   <si>
     <t>噪声源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,6 +169,86 @@
   </si>
   <si>
     <t xml:space="preserve">滤波器阶数：32 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fwiener-GSC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-7.72</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.97</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5.81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.73</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VAD-Wiener-GSC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.73</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -536,9 +616,10 @@
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
@@ -546,8 +627,10 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -563,9 +646,14 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -581,8 +669,14 @@
       <c r="E3" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -598,8 +692,14 @@
       <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -615,8 +715,14 @@
       <c r="E5" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -632,8 +738,14 @@
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -649,8 +761,14 @@
       <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -666,8 +784,14 @@
       <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -683,8 +807,14 @@
       <c r="E9" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -700,8 +830,14 @@
       <c r="E10" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -716,6 +852,12 @@
       </c>
       <c r="E11" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
